--- a/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
+++ b/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
@@ -41,7 +41,7 @@
     <t>陳亭妃</t>
   </si>
   <si>
-    <t>98年03月 24日</t>
+    <t>98年03月24日</t>
   </si>
   <si>
     <t>繼承</t>
@@ -68,10 +68,10 @@
     <t>中期放款</t>
   </si>
   <si>
-    <t>合作金庫商業銀行 臺南市北區西門路</t>
-  </si>
-  <si>
-    <t>89年03月 29日</t>
+    <t>合作金庫商業銀行臺南市北區西門路</t>
+  </si>
+  <si>
+    <t>89年03月29日</t>
   </si>
   <si>
     <t>信用貸款</t>

--- a/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
+++ b/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
@@ -15,25 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>中華FB308W</t>
   </si>
@@ -45,24 +27,6 @@
   </si>
   <si>
     <t>繼承</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>中期放款</t>
@@ -133,12 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,52 +396,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>2835</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2835</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G1" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -489,53 +429,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>970000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
-        <v>970000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
+++ b/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>中華FB308W</t>
   </si>
@@ -97,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,13 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,6 +420,29 @@
         <v>3</v>
       </c>
       <c r="G1" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2835</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -429,13 +453,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,6 +476,29 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>970000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
+++ b/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
@@ -15,7 +15,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>中華FB308W</t>
   </si>
@@ -27,6 +66,18 @@
   </si>
   <si>
     <t>繼承</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-12-28</t>
+  </si>
+  <si>
+    <t>tmp1fdf1</t>
   </si>
   <si>
     <t>中期放款</t>
@@ -397,53 +448,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>2835</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10000</v>
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2">
         <v>2835</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
         <v>10000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1708</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -461,22 +554,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1">
         <v>970000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -484,22 +577,22 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>970000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
+++ b/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
@@ -68,7 +68,7 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>land</t>
+    <t>car</t>
   </si>
   <si>
     <t>normal</t>

--- a/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
+++ b/legislator/property/output/normal/陳亭妃_2011-12-28_財產申報表_tmp1fdf1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -80,6 +80,15 @@
     <t>tmp1fdf1</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>中期放款</t>
   </si>
   <si>
@@ -90,6 +99,9 @@
   </si>
   <si>
     <t>信用貸款</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -546,53 +558,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1">
-        <v>970000</v>
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>970000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1708</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
